--- a/frontend/static/file_examples/create_assembly_picklists/example_destination_plate.xlsx
+++ b/frontend/static/file_examples/create_assembly_picklists/example_destination_plate.xlsx
@@ -8,7 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="content" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="concentration (ng-uL)" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="volume (uL)" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="content" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,11 +22,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t xml:space="preserve">A</t>
   </si>
   <si>
+    <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H</t>
+  </si>
+  <si>
     <t xml:space="preserve">ConstructAlreadyThere1</t>
   </si>
   <si>
@@ -34,9 +57,6 @@
     <t xml:space="preserve">ConstructAlreadyThere17</t>
   </si>
   <si>
-    <t xml:space="preserve">B</t>
-  </si>
-  <si>
     <t xml:space="preserve">ConstructAlreadyThere2</t>
   </si>
   <si>
@@ -46,9 +66,6 @@
     <t xml:space="preserve">ConstructAlreadyThere18</t>
   </si>
   <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
     <t xml:space="preserve">ConstructAlreadyThere3</t>
   </si>
   <si>
@@ -58,9 +75,6 @@
     <t xml:space="preserve">ConstructAlreadyThere19</t>
   </si>
   <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
     <t xml:space="preserve">ConstructAlreadyThere4</t>
   </si>
   <si>
@@ -70,34 +84,22 @@
     <t xml:space="preserve">ConstructAlreadyThere20</t>
   </si>
   <si>
-    <t xml:space="preserve">E</t>
-  </si>
-  <si>
     <t xml:space="preserve">ConstructAlreadyThere5</t>
   </si>
   <si>
     <t xml:space="preserve">ConstructAlreadyThere13</t>
   </si>
   <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
     <t xml:space="preserve">ConstructAlreadyThere6</t>
   </si>
   <si>
     <t xml:space="preserve">ConstructAlreadyThere14</t>
   </si>
   <si>
-    <t xml:space="preserve">G</t>
-  </si>
-  <si>
     <t xml:space="preserve">ConstructAlreadyThere7</t>
   </si>
   <si>
     <t xml:space="preserve">ConstructAlreadyThere15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H</t>
   </si>
   <si>
     <t xml:space="preserve">ConstructAlreadyThere8</t>
@@ -226,18 +228,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H10" activeCellId="0" sqref="H10"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.44"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.56"/>
   </cols>
   <sheetData>
@@ -291,18 +293,18 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
     </row>
-    <row r="2" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -326,18 +328,18 @@
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
     </row>
-    <row r="3" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -361,18 +363,18 @@
       <c r="X3" s="3"/>
       <c r="Y3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -396,18 +398,18 @@
       <c r="X4" s="3"/>
       <c r="Y4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -431,15 +433,15 @@
       <c r="X5" s="3"/>
       <c r="Y5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -464,15 +466,15 @@
       <c r="X6" s="3"/>
       <c r="Y6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -497,15 +499,15 @@
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -530,9 +532,1115 @@
       <c r="X8" s="3"/>
       <c r="Y8" s="3"/>
     </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y17"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="3"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="3"/>
+      <c r="V12" s="3"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="3"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="3"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="3"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="3"/>
+      <c r="V14" s="3"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="3"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
+      <c r="O17" s="3"/>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="3"/>
+      <c r="R17" s="3"/>
+      <c r="S17" s="3"/>
+      <c r="T17" s="3"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="3"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Y18"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="8.56"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="33.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+      <c r="T7" s="3"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
+    </row>
+    <row r="8" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
+      <c r="V8" s="3"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="3"/>
+    </row>
     <row r="9" customFormat="false" ht="22.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>26</v>
